--- a/example_data/EMA/label_corrected/crysvita-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/crysvita-epar-product-information_en.xlsx
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
